--- a/VM_Server_Scripts_Status.xlsx
+++ b/VM_Server_Scripts_Status.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="41">
   <si>
     <t>Scripts List</t>
   </si>
@@ -65,9 +65,6 @@
     <t>GetDTD.ps1</t>
   </si>
   <si>
-    <t>hostnamessingleip.ps1</t>
-  </si>
-  <si>
     <t>metascan.ps1</t>
   </si>
   <si>
@@ -144,6 +141,12 @@
   </si>
   <si>
     <t>See work log IXP-821</t>
+  </si>
+  <si>
+    <t>addHostnamesSingleIP.ps1</t>
+  </si>
+  <si>
+    <t>See work log IXP-823</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -254,6 +257,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -261,7 +265,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -600,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,13 +655,13 @@
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -625,7 +669,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -654,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>5</v>
@@ -667,17 +711,17 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
@@ -689,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -701,16 +745,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
@@ -722,10 +766,10 @@
         <v>8</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="8"/>
     </row>
@@ -733,17 +777,17 @@
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>
@@ -755,10 +799,10 @@
         <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -767,16 +811,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
@@ -788,10 +832,10 @@
         <v>11</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="8"/>
     </row>
@@ -799,17 +843,17 @@
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
@@ -821,28 +865,28 @@
         <v>12</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>9</v>
@@ -851,31 +895,31 @@
         <v>42353</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>9</v>
@@ -884,64 +928,64 @@
         <v>42353</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8">
         <v>42353</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>9</v>
@@ -950,31 +994,31 @@
         <v>42353</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>9</v>
@@ -983,31 +1027,31 @@
         <v>42352</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>9</v>
@@ -1016,31 +1060,31 @@
         <v>42352</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
@@ -1049,31 +1093,31 @@
         <v>42353</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>9</v>
@@ -1082,31 +1126,31 @@
         <v>42353</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>9</v>
@@ -1115,19 +1159,19 @@
         <v>42353</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -1135,227 +1179,235 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1375,32 +1427,52 @@
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:E18 J5:J18">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="J5:J18 B5:E18">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:D27 B29:D32 B28:C28 B34:D37 B33:C33">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="B24:D27 B29:D29 B28:C28 B34:D37 B33:C33 B31:D32">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B37">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="B24:B29 B31:B37">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C37">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="C24:C29 C31:C37">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>

--- a/VM_Server_Scripts_Status.xlsx
+++ b/VM_Server_Scripts_Status.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
   <si>
     <t>Scripts List</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Error Status</t>
   </si>
   <si>
-    <t>Not fixed</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -147,13 +144,22 @@
   </si>
   <si>
     <t>See work log IXP-823</t>
+  </si>
+  <si>
+    <t>See work log IXP-825</t>
+  </si>
+  <si>
+    <t>See work log IXP-1266</t>
+  </si>
+  <si>
+    <t>No ticket - same type of issue as IXP-1266</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +191,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +210,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -235,10 +253,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -258,14 +277,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -644,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>5</v>
@@ -874,7 +947,7 @@
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
@@ -895,7 +968,7 @@
         <v>42353</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>24</v>
@@ -1179,30 +1252,34 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="B24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -1214,12 +1291,12 @@
       <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="D25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -1231,12 +1308,12 @@
       <c r="C26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -1245,15 +1322,15 @@
       <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="D27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1265,29 +1342,29 @@
       <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="D28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="D29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1299,12 +1376,12 @@
       <c r="C30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="D30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -1314,23 +1391,27 @@
         <v>23</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -1342,29 +1423,29 @@
       <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="D33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="D34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -1376,12 +1457,12 @@
       <c r="C35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="D35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -1391,10 +1472,10 @@
         <v>23</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -1404,10 +1485,10 @@
         <v>23</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1428,53 +1509,78 @@
     <mergeCell ref="D29:G29"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:J18 B5:E18">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:D27 B29:D29 B28:C28 B34:D37 B33:C33 B31:D32">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+  <conditionalFormatting sqref="B29:D29 B28:C28 B34:D34 B33:C33 B31:D31 B25:D27 B24:C24 B36:D37 B35:C35 D32">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B29 B31:B37">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+  <conditionalFormatting sqref="B31 B24:B29 B33:B37">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C29 C31:C37">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+  <conditionalFormatting sqref="C31 C24:C29 C33:C37">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D24">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="B32:C32">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Yes"</formula>
+      <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="B32">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="C32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Done"</formula>
+      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VM_Server_Scripts_Status.xlsx
+++ b/VM_Server_Scripts_Status.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="43">
   <si>
     <t>Scripts List</t>
   </si>
@@ -277,11 +277,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,56 +1209,40 @@
       </c>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="8">
-        <v>42353</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D23" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -1266,24 +1250,24 @@
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>28</v>
@@ -1291,294 +1275,277 @@
       <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>10</v>
+      <c r="A26" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>11</v>
+      <c r="A27" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="A29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5:J18 B5:E18">
+  <conditionalFormatting sqref="J5:J17 B5:E17">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:D29 B28:C28 B34:D34 B33:C33 B31:D31 B25:D27 B24:C24 B36:D37 B35:C35 D32">
+  <conditionalFormatting sqref="B28:D28 B27:C27 B33:D33 B32:C32 B30:D30 B24:D26 B23:C23 B35:D36 B34:C34 D31">
     <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31 B24:B29 B33:B37">
+  <conditionalFormatting sqref="B30 B23:B28 B32:B36">
     <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31 C24:C29 C33:C37">
+  <conditionalFormatting sqref="C30 C23:C28 C32:C36">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
+  <conditionalFormatting sqref="B29:C29">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="B29">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C29">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D29">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D23">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C32">
+  <conditionalFormatting sqref="B31:C31">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="B31">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
